--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C38624-D06D-4C42-B97C-8ABC16E1407A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6548472D-3ECF-49B1-BA9B-D65722DD724E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="182">
   <si>
     <t>所属项目</t>
   </si>
@@ -55,28 +55,6 @@
     <t>/(#0)</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入市场营销模块，解密
-4.已准备有邮箱的学生资源
-5.已准备无邮箱的学生资源
-[步骤]
-1. 点击快捷导航列的市场营销
-2. 点击读取邮箱按钮
-3. 点击确定读取邮箱
-[结果]
-1. 界面显示信息完整
-2. 读取邮箱弹窗无法正常打开
-3. 无法成功读取邮箱通知对应主管分配资源
-[期望]
-1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开
-3. 成功读取邮箱通知对应主管分配资源
-</t>
-  </si>
-  <si>
     <t>激活</t>
   </si>
   <si>
@@ -89,165 +67,27 @@
     <t>WB2.5_用户名为3位字符，登录失败</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.进入登录界面
-2.存在用户tyu/123456
-[步骤]
-1. 输入用户名：tyu
-2. 输入密码：123456
-3. 点击登录
-[结果]
-1. 登录成功
-[期望]
-1. 可以输入用户名：tyu
-2. 可以输入密码：123456
-3. 登录失败
-</t>
-  </si>
-  <si>
     <t>/财务管理(#73)</t>
   </si>
   <si>
     <t>WB2.5_财务管理_检验输入交易时间，金额，对方账号，资金用途都为空时的新增功能</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.使用财务人员账号登录成功WNCD012/woniu123
-2.进入财务管理—财务流水模块
-[步骤]
-1. 点击新增流水按钮
-2. 一级科目：主营业务收入
-二级科目：就业培训
-类型：公账
-结算方式：支付宝
-负责人：基本户（成都）
-收支类型：收入
-交易账号：693778625
-交易时间：
-金额：
-对方账号：
-资金用途：
-3. 点击保存按钮
-[结果]
-2. 类型为公账，结算方式自动跳转为转账
-[期望]
-1. 界面出现新增流水信息的弹框
-2. 一级科目：主营业务收入
-二级科目：就业培训
-类型：公账
-结算方式：支付宝
-负责人：基本户（成都）
-收支类型：收入
-交易账号：693778625
-交易时间：
-金额：
-对方账号：
-资金用途：
-3. 页面跳转至新增财务流水记录列表界面，列表中存在该条流水信息
-</t>
-  </si>
-  <si>
     <t>WB2.5_财务管理_检验输入对方账号为全是特殊符号时的新增功能</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.使用财务人员账号登录成功WNCD012/woniu123
-2.进入财务管理—财务流水模块
-[步骤]
-1. 点击新增流水按钮
-2. 一级科目：主营业务收入
-二级科目：就业培训
-类型：公账
-结算方式：支付宝
-负责人：基本户（成都）
-收支类型：收入
-交易账号：693778625
-交易时间：2020-04-09
-金额：100.09
-对方账号：!@#@!@!
-资金用途：缴纳学费！
-3. 点击保存按钮
-[结果]
-2. 类型为公账时结算方式自动跳转为转账
-3. 对方账号输入特殊符号显示无误，新增成功
-[期望]
-1. 界面出现新增流水信息的弹框
-2. 一级科目：主营业务收入
-二级科目：就业培训
-类型：公账
-结算方式：支付宝
-负责人：基本户（成都）
-收支类型：收入
-交易账号：693778625
-交易时间：2020-04-09
-金额：100.09
-对方账号：!@#@!@!
-资金用途：缴纳学费！
-3. 页面出现新增失败弹窗
-</t>
-  </si>
-  <si>
     <t>WB2.5_财务管理_检验结束时间为空时的查询功能</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.使用财务人员账号登录成功WNCD012/woniu123
-2.进入财务管理—财务流水模块
-3.存在流水记录A：开始时间=2020-05-02，结束时间=，一级科目=商务费用，二级科目=项目提成
-4.存在流水记录B：开始时间=2020-05-11，结束时间=，一级科目=商务费用，二级科目=项目提成
-[步骤]
-1. 开始时间：2020-05-02
-结束时间=
-一级科目：商务费用
-二级科目：项目提成
-2. 点击查询按钮
-[结果]
-2. 查询提示无符合条件的记录
-[期望]
-1. 输入框跟下拉框中完整显示
-开始时间：2020-05-02
-结束时间=
-一级科目：商务费用
-二级科目：项目提成
-2. 财务流水列表中完整显示财务流水记录A
-</t>
-  </si>
-  <si>
     <t>/登录(#66)</t>
   </si>
   <si>
     <t>WB2.5_登录_检查验证码是否在规定的时间内刷新</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.进入登录界面
-[步骤]
-1. 等待验证码在30s内刷新
-[结果]
-1. 等待30秒后验证码未刷新
-[期望]
-1. 验证码刷新成功
-</t>
-  </si>
-  <si>
     <t>WB2.5_导航_输入解密密码为空时解密功能检查</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.使用管理员账号登录成功WNCD000/woniu123
-2.进入系统界面
-[步骤]
-1. 点击解密按钮
-2. 输入密码=
-3. 点击确认
-[结果]
-[期望]
-1. 界面出现出入解密密码的弹窗
-2. 输入框中无任何显示
-3. 页面出现“您的输入为空，请重新输入”的提示弹窗
-</t>
-  </si>
-  <si>
     <t>已解决</t>
   </si>
   <si>
@@ -260,219 +100,28 @@
     <t>WB2.5_登录_用户名为3位字符</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.进入登录界面
-2.存在用户tyu/123456[步骤]1. 输入用户名：tyu
-2. 输入密码：123456
-3. 点击登录
-[结果]1. 登录成功
-[期望]1. 可以输入用户名：tyu
-2. 可以输入密码：123456
-3. 登录失败
-</t>
-  </si>
-  <si>
     <t>WB2.5_登录_将存在的用户名大小写字母转换</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.进入登录界面
-2.存在用户tyuiy54345/123456[步骤]1. 输入用户名：tyuiy54345
-2. 输入密码：123456
-3. 点击登录
-[结果]1. 登录成功
-[期望]1. 可以输入用户名：TYUIY54345
-2. 可以输入密码：123456
-3. 登录失败
-</t>
-  </si>
-  <si>
     <t>WB2.5_登录_可以进入蜗牛boss系统的登录界面</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-系统在Linux上部署成功[步骤]1. 输入系统的网址http://192.172.3.111/WoniuBoss2.5/
-[结果]1. 无法访问系统
-[期望]1. 可以进入蜗牛boss系统的登录界面
-</t>
-  </si>
-  <si>
     <t>WB2.7_企业客户_讲师权限检查</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.存在讲师账号WNCD031/woniu123/woniu123
-2.已存在企业C  培训机构/教育/光谷广场/一个人/190876792
-存在企业B  名称ABC/所属行业能源/企业地址武汉市光谷大道/联系人ygl/联系电话：13456789098
-3.已进行解密操作[步骤]1. 进入企业客户模块
-2. 搜索企业名称为培训机构
-[结果]1. 搜索成功
-[期望]1. 进入成功
-2. 搜索失败
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.进入登录界面[步骤]1. 等待验证码在30s内刷新
-[结果]1. 30秒后验证码未刷新
-[期望]1. 验证码刷新成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-系统在Linux上部署成功[步骤]1. 输入系统的网址http://192.172.3.111/WoniuBoss2.5/
-[结果]1. 无法访问
-[期望]1. 可以进入蜗牛boss系统的登录界面
-</t>
-  </si>
-  <si>
     <t>/行政综合(#75)</t>
   </si>
   <si>
     <t>WB2.5_行政综合_检验输入不存在的固定资产名称</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.使用管理员账号登录成功WNCD000/woniu123
-2.进入行政综合-固定资产领用登记模块，
-3.存在领用固定资产A：领用资产名称为电脑
-4.不存在领用固定资产B：领用资产名称为电视
-[步骤]
-1. 固定资产名称:电视
-2. 点击查询
-[结果]
-2. 新增功能未实现，无法新增数据查询数据
-[期望]
-1. 输入框中完整显示电视
-2. 列表中无任何显示
-</t>
-  </si>
-  <si>
     <t>/后台管理(#76)</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-进入后台管理角色管理界面
-[步骤]
-1. 点击新增
-2. 输入角色名:空，描述:B
-3. 点击保存
-4. 检查是否成功新增
-[结果]
-1. 弹出新增角色弹窗
-2. 成功输入并显示
-3. 保存成功
-4. 新增成功
-[期望]
-1. 弹出新增角色弹窗
-2. 成功输入并显示
-3. 保存失败，角色名不能为空
-4. 新增失败
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-进入后台管理角色管理界面
-[步骤]
-1. 点击总经理后的修改按钮
-2. 修改总经理角色名为空
-3. 点击保存按钮
-[结果]
-1. 弹出修改角色的弹窗
-2. 修改成功
-3. 未弹出保存成功或者保存失败
-[期望]
-1. 弹出修改角色的弹窗
-2. 修改成功
-3. 保存失败
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-进入后台管理角色管理界面
-[步骤]
-1. 点击新增
-2. 输入角色名:空，描述:B
-3. 点击保存
-4. 检查是否成功新增
-[结果]
-1. 弹出新增角色弹窗
-2. 成功输入并显示
-3. 保存成功
-4. 新增成功
-[期望]
-1. 弹出新增角色弹窗
-2. 成功输入并显示
-3. 保存失败，角色名不能为空
-4. 新增失败
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入后台管理模块，解密
-[步骤]
-1. 点击快捷导航列表的后台管理
-2. 点击资源树按钮
-3. 点击编辑资源
-4. 填写资源名:空
-[结果]
-1. 界面信息完整
-2. 资源树弹窗显示正常
-3. 编辑栏可编辑
-4. 资源树编辑成功
-[期望]
-1. 界面信息完整
-2. 资源树弹窗显示正常
-3. 编辑栏可编辑
-4. 资源树编辑失败
-</t>
-  </si>
-  <si>
     <t>/流程(#77)</t>
   </si>
   <si>
     <t>WB2.5_资源池_专属_分配_认领_条件不符_公共池_资源状态被修改为条件不符_但未进入公共池</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.存在管理员账号wncd000/woniu123/woniu123账号
-2.已进入蜗牛boss系统
-3.存在上传专属的文件
-4.已解密
-[步骤]
-1. 点击市场营销
-2. 点击上传专属
-3. 点击区域为成都
-4. 部门为咨询部
-5. 选择简历文件
-6. 点击上传
-7. 检查是否上传成功
-8. 进入培训资源-分配资源页面
-9. 选择资源分配给咨询师李娇
-10. 查看资源状态
-11. 修改资源状态为条件不符
-12. 点击保存
-13. 查看资源状态
-[结果]
-13. 资源未进入公共池
-[期望]
-1. 成功进入市场营销模块
-2. 弹出上传专属弹窗
-3. 区域选择成功
-4. 部门选择成功
-5. 简历文件选中成功
-6. 简历文件上传成功
-7. 上传专属资源检查成功
-8. 进入培训资源-分配资源页面
-9. 分配资源成功
-10. 资源已到李娇的临时池
-11. 资源状态修改成功
-12. 保存成功
-13. 资源状态修改成功、资源到公共池
-</t>
   </si>
   <si>
     <t>WB2.5_资源池_专属_分配_认领_培训过_公共池</t>
@@ -519,44 +168,6 @@
 1.存在管理员账号wncd000/woniu123/woniu123账号
 2.已进入蜗牛boss系统
 3.存在上传专属的文件
-4.已解密
-[步骤]
-1. 点击市场营销
-2. 点击上传专属
-3. 点击区域为成都
-4. 部门为咨询部
-5. 选择简历文件
-6. 点击上传
-7. 检查是否上传成功
-8. 进入培训资源-分配资源页面
-9. 选择资源分配给咨询师李娇
-10. 查看资源状态
-11. 修改资源状态为条件不符
-12. 点击保存
-13. 查看资源状态
-[结果]
-1. 资源未到公共池
-[期望]
-1. 成功进入市场营销模块
-2. 弹出上传专属弹窗
-3. 区域选择成功
-4. 部门选择成功
-5. 简历文件选中成功
-6. 简历文件上传成功
-7. 上传专属资源检查成功
-8. 进入培训资源-分配资源页面
-9. 分配资源成功
-10. 资源已到李娇的临时池
-11. 资源状态修改成功
-12. 保存成功
-13. 资源状态修改成功、资源到公共池
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.存在管理员账号wncd000/woniu123/woniu123账号
-2.已进入蜗牛boss系统
-3.存在上传专属的文件
 4.已解密[步骤]1. 点击市场营销
 2. 点击上传专属
 3. 点击区域为成都
@@ -732,27 +343,6 @@
     <t>WB2.5_培训资源_跟踪界面的状态的转换</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.存在咨询主管账号wncd011/woniu123/woniu123
-2.已进入培训资源模块
-3.临时池 存在数据 A 罗艺文 成都 专属 新入库
-数据B 薛敬文	成都	QQ群	新入库	18922220006
-4.已解密
-[步骤]
-1. 点击资源A的跟踪
-2. 点击资源跟踪界面
-3. 将新入库变成已报名
-4. 查看资源A的状态
-[结果]
-1. 状态为：已报名
-[期望]
-1. 弹出跟踪窗口
-2. 可以进入资源跟踪界面
-3. 选择新认领成功
-4. 状态变成已报名
-</t>
-  </si>
-  <si>
     <t>WB2.5_培训资源_资源新增为空检查</t>
   </si>
   <si>
@@ -767,34 +357,6 @@
   </si>
   <si>
     <t>WB2.5_培训资源_资源新增必填项选填</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.存在咨询主管账号wncd011/woniu123/woniu123
-2.已进入培训资源模块
-3.进入培训资源功能页
-4.已进行解密操作
-[步骤]
-1. 点击新增按钮
-2. 电话号码为187236565878
-3. 姓名：人头狗
-4. 状态选择：新认领
-5. 渠道选择：QQ群
-6. 性别：男、邮箱：8767986@163.com、QQ：8726818167、求职意向：腾讯公司、工作经验选择3年、期望薪水：20000、应聘职位：自动化工程师、
-7. 点击保存
-8. 检查数据是否增加成功
-[结果]
-1. 保存成功
-[期望]
-1. 可以弹出新增界面
-2. 电话号码成功输入
-3. 姓名成功输入成功
-4. 状态选择成功
-5. 渠道选择成功
-6. 选填项可以输入成功
-7. 保存失败
-8. 数据增加成功
-</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -857,39 +419,7 @@
     <t>WB2.8_企业客户_市场人员权限检查_可以查询</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.存在市场账号WNCD021/woniu123/woniu123
-2.已存在企业C  培训机构/教育/光谷广场/一个人/190876792
-存在企业B  名称ABC/所属行业能源/企业地址武汉市光谷大道/联系人ygl/联系电话：13456789098
-3.已进行解密操作
-[步骤]
-1. 进入企业客户模块
-2. 搜索企业名称为培训机构
-[结果]
-2. 搜索成功
-[期望]
-1. 进入成功
-2. 搜索失败
-</t>
-  </si>
-  <si>
     <t>WB2.7_企业客户_讲师权限检查_可以查询</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.存在讲师账号WNCD031/woniu123/woniu123
-2.已存在企业C  培训机构/教育/光谷广场/一个人/190876792
-存在企业B  名称ABC/所属行业能源/企业地址武汉市光谷大道/联系人ygl/联系电话：13456789098
-3.已进行解密操作
-[步骤]
-1. 进入企业客户模块
-2. 搜索企业名称为培训机构
-[结果]
-2. 搜索成功
-[期望]
-1. 进入成功
-2. 搜索失败
-</t>
   </si>
   <si>
     <t>/人事管理(#74)</t>
@@ -932,7 +462,1188 @@
     <t>WB2.5_人事管理_检验邮箱为空部门没有选择时新增员工失败</t>
   </si>
   <si>
+    <t>WB2.5_人事管理_输入邮箱为企业邮箱显示成功，保存信息时弹窗提示新增员工失败</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_输入邮箱为微博邮箱显示成功，但保存信息时弹窗提示新增员工失败</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_输入电话号码中包含特殊符号新增员工成功</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_输入电话长度等于10位数新增成功</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_输入电话长度等于12位数新增员工成功</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_检验电话为空时的新增失败</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_检验输入姓名为全特殊符号的新增失败</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_检验输入姓名为全英文的新增功能</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_修改QQ为长度等于12位数的修改功能检查</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_修改QQ为长度等于5位数的修改功能检查</t>
+  </si>
+  <si>
     <t xml:space="preserve">[前置条件]
+1.使用管理员账号登录成功WNCD000/woniu123，
+2.进入人事管理-员工管理模块
+3.存在员工信息A：QQ为15072455的员工信息[步骤]1. 点击修改按钮
+2. 修改QQ：34232
+3. 点击保存
+[结果]1. QQ长度修改为5位数显示无误，保存成功
+[期望]1. 界面出现修改员工信息功能的弹窗
+2. 邮箱输入框中完整显示“34232”
+3. 点击保存无反应
+</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_检查修改工号的修改功能</t>
+  </si>
+  <si>
+    <t>WB2.5_人事管理_检查部门、姓名的组合查询功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用管理员账号登录成功WNCD000/woniu123，
+2.进入人事管理-员工管理模块
+3.存在员工信息A：部门为咨询部，姓名为郑雪娇的员工信息
+4.存在员工信息B：部门为咨询部，姓名为李姣的员工信息
+[步骤]
+1. 点击部门下拉框，选择咨询部选项
+2. 点击姓名输入框，输入李娇
+3. 点击查询
+[结果]
+3. 员工信息显示B
+[期望]
+1. 部门下拉框完整显示咨询部
+2. 姓名输入框完整显示李娇
+3. 员工信息列表中只显示员工信息A
+</t>
+  </si>
+  <si>
+    <t>/市场营销(#68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.存在有管理员权限账户WNCD000
+woniu123/woniu123
+2.使用账号登录系统
+3.进入市场营销模块，解密
+4.已准备有邮箱的学生资源
+5.已准备无邮箱的学生资源
+[步骤]
+1. 点击快捷导航列的市场营销
+2. 点击读取邮箱按钮
+3. 点击确定读取邮箱
+[结果]
+1. 界面显示信息完整
+2. 读取邮箱弹窗不能正常打开
+3. 不能成功读取邮箱通知对应主管分配资源
+[期望]
+1. 界面显示信息完整
+2. 读取邮箱弹窗正常打开
+3. 成功读取邮箱通知对应主管分配资源
+</t>
+  </si>
+  <si>
+    <t>/学员管理(#71)</t>
+  </si>
+  <si>
+    <t>WB2.5_学员管理管理员权没有请假考勤权限</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假修改开始小于当前时会成功</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假修改结束小于开始时会成功</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假新增请假天数无法成功</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假新增_无开始时间时会成功</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假新增无结束时间会成功</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假新增开始小于当前时会成功</t>
+  </si>
+  <si>
+    <t>WB2.5_学员请假新增结束小于开始时成功</t>
+  </si>
+  <si>
+    <t>WB2.5_课程安排排课新增一条数据时无法保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入课程安排子模块
+3.存在10个讲师
+4.点击新增排课按钮
+5.选择第1个讲师进行排课
+[步骤]
+1. 选择开始时间：当前时间
+2. 选择结束时间：开始时间+30
+3. 状态：实训
+4. 教室：教室九
+5. 班级：WNCDC001
+6. 方向：测试
+7. 课程安排：项目阶段第三周
+8. 点击保存并关闭
+[结果]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存失败
+[期望]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存成功，弹出提示框“排课完毕”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入课程安排子模块
+3.存在10个讲师
+4.点击新增排课按钮
+5.选择第1个讲师进行排课
+[步骤]
+1. 选择开始时间：当前时间
+2. 选择结束时间：开始时间+30
+3. 状态：实训
+4. 教室：教室九
+5. 班级：WNCDC001
+6. 方向：测试
+7. 课程安排：第一阶段第一周
+8. 点击保存并关闭
+[结果]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存失败
+[期望]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存成功，弹出提示框“排课完毕”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入课程安排子模块
+3.存在10个讲师
+4.点击新增排课按钮
+5.选择第1个讲师进行排课
+[步骤]
+1. 选择开始时间：当前时间
+2. 选择结束时间：开始时间+30
+3. 状态：休息
+4. 教室：教室九
+5. 班级：WNCDC001
+6. 方向：开发
+7. 课程安排：项目阶段第三周
+8. 点击保存并关闭
+[结果]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存失败
+[期望]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存成功，弹出提示框“排课完毕”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入课程安排子模块
+3.存在10个讲师
+4.点击新增排课按钮
+5.选择第1个讲师进行排课
+[步骤]
+1. 选择开始时间：当前时间
+2. 选择结束时间：开始时间+30
+3. 状态：休息
+4. 教室：教室九
+5. 班级：WNCDC001
+6. 方向：开发
+7. 课程安排：第一阶段第一周
+8. 点击保存并关闭
+[结果]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存失败
+[期望]
+1. 开始时间选择成功，信息展示正常
+2. 结束时间选择成功，信息展示正常
+3. 状态选择成功，信息展示正常
+4. 教室选择成功，信息展示正常
+5. 班级选择成功，信息展示正常
+6. 方向选择成功，信息展示正常
+7. 课程安排选择成功，信息展示正常
+8. 保存成功，弹出提示框“排课完毕”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_测评阶段录入项目实战阶段成绩为特殊字符时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入测评阶段子模块
+3.存在1条学员信息
+4.点击学员信息测评按钮
+[步骤]
+1. 选择阶段：项目实战阶段
+2. 输入成绩：@#￥%
+3. 转就业：否
+4. 点击保存按钮
+[结果]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 转就业选择成功，信息展示正常
+4. 保存成功
+[期望]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 转就业选择成功，信息展示正常
+4. 保存失败，弹出提示框：“保存失败”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改必填项随机填一半时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：空
+4. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 修改失败，弹出提示框：“修改信息不完整”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改电话空时修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：空
+4. 修改最新状态：已失联
+5. 修改来源：其他
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“电话输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改电话特殊字符时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：你好
+4. 修改最新状态：已休学
+5. 修改来源：其他
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“电话输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改电话汉字时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：你好
+4. 修改最新状态：已就业
+5. 修改来源：其他
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“电话输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改电话字母时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：fsafdsfs
+4. 修改最新状态：转就业
+5. 修改来源：其他
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“电话输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改电话12位数字时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：156789999990
+4. 修改最新状态：在校学习
+5. 修改来源：其他
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“电话输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_基本信息修改电话10位数字会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：张三
+3. 修改电话：1567899999
+4. 修改最新状态：已退学
+5. 修改来源：其他
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“电话输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_修改姓名空时会修改成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统
+2.进入学员管理模块，已解密
+3.进入基本信息子模块
+4.存在1条学员信息
+[步骤]
+1. 点击学员信息修改按钮
+2. 修改姓名：空
+3. 修改电话：15678999999
+4. 修改最新状态：未开班
+5. 修改来源：智联招聘
+6. 点击保存按钮
+[结果]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改成功
+[期望]
+1. 按钮点击成功，弹出修改学员信息页面
+2. 姓名修改成功，信息展示正常
+3. 电话修改成功，信息展示正常
+4. 最新状态修改成功，信息展示正常
+5. 来源修改成功，信息展示正常
+6. 修改失败，弹出提示框：“姓名输入错误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_测评阶段录入项目实战阶段成绩为字母时会保存成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入测评阶段子模块
+3.存在1条学员信息
+4.点击学员信息测评按钮
+[步骤]
+1. 选择阶段：项目实战阶段
+2. 输入成绩：hundred
+3. 转就业：否
+4. 点击保存按钮
+[结果]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 转就业选择成功，信息展示正常
+4. 保存成功
+[期望]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 转就业选择成功，信息展示正常
+4. 保存失败，弹出提示框：“保存失败”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_测评阶段录入专业第三阶段成绩为汉字会录入成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入测评阶段子模块
+3.存在1条学员信息
+4.点击学员信息测评按钮
+[步骤]
+1. 选择阶段：专业第三阶段
+2. 输入成绩：一百
+3. 点击保存按钮
+[结果]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 保存成功
+[期望]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 保存失败，弹出提示框：“保存失败”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_测评阶段录入专业第二阶段成绩为空时会录入成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入测评阶段子模块
+3.存在1条学员信息
+4.点击学员信息测评按钮
+[步骤]
+1. 选择阶段：专业第二阶段
+2. 点击保存按钮
+[结果]
+1. 选择阶段成功，信息展示正常
+2. 保存成功
+[期望]
+1. 选择阶段成功，信息展示正常
+2. 保存失败，弹出提示框：“保存失败”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_测评阶段录入阶段全部成绩小于0会录入成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入测评阶段子模块
+3.存在1条学员信息
+4.点击学员信息测评按钮
+[步骤]
+1. 选择阶段：全部
+2. 输入成绩：-1
+3. 点击保存按钮
+[结果]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 保存成功
+[期望]
+1. 选择阶段成功，信息展示正常
+2. 输入成绩成功，信息展示正常
+3. 保存失败，弹出提示框：“保存失败”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_今日晨考录入分数为空保存会成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入今日晨考子模块
+3.存在1条学员信息
+[步骤]
+1. 点击学员信息的晨考按钮
+2. 选择方式：其他方式
+3. 输入分数：
+4. 输入题目：1+1=?
+5. 点击保存按钮
+[结果]
+1. 晨考按钮点击成功，弹出“晨考记录录入”界面
+2. 方式选择成功，信息展示正常
+3. 分数输入成功，信息展示正常
+4. 题目输入成功，信息展示正常
+5. 保存成功
+[期望]
+1. 晨考按钮点击成功，弹出“晨考记录录入”界面
+2. 方式选择成功，信息展示正常
+3. 分数输入成功，信息展示正常
+4. 题目输入成功，信息展示正常
+5. 保存失败，弹出提示框：“分数输入有误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_今日晨考录入分数特殊字符保存会成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入今日晨考子模块
+3.存在1条学员信息
+[步骤]
+1. 点击学员信息的晨考按钮
+2. 选择方式：随堂作业
+3. 输入分数：@#￥%
+4. 输入题目：1+1=?
+5. 点击保存按钮
+[结果]
+5. 保存成功
+[期望]
+1. 晨考按钮点击成功，弹出“晨考记录录入”界面
+2. 方式选择成功，信息展示正常
+3. 分数输入成功，信息展示正常
+4. 题目输入成功，信息展示正常
+5. 保存失败，弹出提示框：“分数输入有误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_今日晨考录入_分数字母</t>
+  </si>
+  <si>
+    <t>WB2.5_今日晨考录入分数汉字保存会成功</t>
+  </si>
+  <si>
+    <t>WB2.5_今日晨考录入分数小于0保存会成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入今日晨考子模块
+3.存在1条学员信息
+[步骤]
+1. 点击学员信息的晨考按钮
+2. 选择方式：随堂问答
+3. 输入分数：-1
+4. 输入题目：1+1=?
+5. 点击保存按钮
+[结果]
+5. 保存成功
+[期望]
+1. 晨考按钮点击成功，弹出“晨考记录录入”界面
+2. 方式选择成功，信息展示正常
+3. 分数输入成功，信息展示正常
+4. 题目输入成功，信息展示正常
+5. 保存失败，弹出提示框：“分数输入有误”
+</t>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_新增角色名为空保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_新增角色保存失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_修改角色名为空成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_读取邮箱功能无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_读取邮箱功能有邮箱读取失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_新增网络保存无提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销_能够搜索开始时间大于结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理_菜单管理资源树能编辑为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在有管理员权限账户WNCD000
+woniu123/woniu123
+2.使用账号登录系统
+3.进入市场营销模块，解密
+4.已准备有邮箱的学生资源
+5.已准备无邮箱的学生资源
+[步骤]
+1. 点击快捷导航列的市场营销
+2. 点击读取邮箱按钮
+3. 点击确定读取邮箱
+[结果]
+1. 界面显示信息完整
+2. 读取邮箱弹窗无法正常打开
+3. 无法成功读取邮箱通知对应主管分配资源
+[期望]
+1. 界面显示信息完整
+2. 读取邮箱弹窗正常打开
+3. 成功读取邮箱通知对应主管分配资源</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.进入登录界面
+2.存在用户tyu/123456
+[步骤]
+1. 输入用户名：tyu
+2. 输入密码：123456
+3. 点击登录
+[结果]
+1. 登录成功
+[期望]
+1. 可以输入用户名：tyu
+2. 可以输入密码：123456
+3. 登录失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.使用财务人员账号登录成功WNCD012/woniu123
+2.进入财务管理—财务流水模块
+[步骤]
+1. 点击新增流水按钮
+2. 一级科目：主营业务收入
+二级科目：就业培训
+类型：公账
+结算方式：支付宝
+负责人：基本户（成都）
+收支类型：收入
+交易账号：693778625
+交易时间：
+金额：
+对方账号：
+资金用途：
+3. 点击保存按钮
+[结果]
+1. 类型为公账，结算方式自动跳转为转账
+[期望]
+1. 界面出现新增流水信息的弹框
+2. 一级科目：主营业务收入
+二级科目：就业培训
+类型：公账
+结算方式：支付宝
+负责人：基本户（成都）
+收支类型：收入
+交易账号：693778625
+交易时间：
+金额：
+对方账号：
+资金用途：
+3. 页面跳转至新增财务流水记录列表界面，列表中存在该条流水信息
+</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用财务人员账号登录成功WNCD012/woniu123
+2.进入财务管理—财务流水模块
+[步骤]
+1. 点击新增流水按钮
+2. 一级科目：主营业务收入
+二级科目：就业培训
+类型：公账
+结算方式：支付宝
+负责人：基本户（成都）
+收支类型：收入
+交易账号：693778625
+交易时间：2020-04-09
+金额：100.09
+对方账号：!@#@!@!
+资金用途：缴纳学费！
+3. 点击保存按钮
+[结果]
+2. 类型为公账时结算方式自动跳转为转账
+3. 对方账号输入特殊符号显示无误，新增成功
+[期望]
+1. 界面出现新增流水信息的弹框
+2. 一级科目：主营业务收入
+二级科目：就业培训
+类型：公账
+结算方式：支付宝
+负责人：基本户（成都）
+收支类型：收入
+交易账号：693778625
+交易时间：2020-04-09
+金额：100.09
+对方账号：!@#@!@!
+资金用途：缴纳学费！
+3. 页面出现新增失败弹窗</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用财务人员账号登录成功WNCD012/woniu123
+2.进入财务管理—财务流水模块
+3.存在流水记录A：开始时间=2020-05-02，结束时间=，一级科目=商务费用，二级科目=项目提成
+4.存在流水记录B：开始时间=2020-05-11，结束时间=，一级科目=商务费用，二级科目=项目提成
+[步骤]
+1. 开始时间：2020-05-02
+结束时间=
+一级科目：商务费用
+二级科目：项目提成
+2. 点击查询按钮
+[结果]
+2. 查询提示无符合条件的记录
+[期望]
+1. 输入框跟下拉框中完整显示
+开始时间：2020-05-02
+结束时间=
+一级科目：商务费用
+二级科目：项目提成
+2. 财务流水列表中完整显示财务流水记录A</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.进入登录界面
+[步骤]
+1. 等待验证码在30s内刷新
+[结果]
+1. 等待30秒后验证码未刷新
+[期望]
+1. 验证码刷新成功</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用管理员账号登录成功WNCD000/woniu123
+2.进入系统界面
+[步骤]
+1. 点击解密按钮
+2. 输入密码=
+3. 点击确认
+[结果]
+[期望]
+1. 界面出现出入解密密码的弹窗
+2. 输入框中无任何显示
+3. 页面出现“您的输入为空，请重新输入”的提示弹窗</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.进入登录界面
+2.存在用户tyu/123456[步骤]1. 输入用户名：tyu
+2. 输入密码：123456
+3. 点击登录
+[结果]1. 登录成功
+[期望]1. 可以输入用户名：tyu
+2. 可以输入密码：123456
+3. 登录失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.进入登录界面
+2.存在用户tyuiy54345/123456[步骤]1. 输入用户名：tyuiy54345
+2. 输入密码：123456
+3. 点击登录
+[结果]1. 登录成功
+[期望]1. 可以输入用户名：TYUIY54345
+2. 可以输入密码：123456
+3. 登录失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+系统在Linux上部署成功[步骤]1. 输入系统的网址http://192.172.3.111/WoniuBoss2.5/
+[结果]1. 无法访问系统
+[期望]1. 可以进入蜗牛boss系统的登录界面</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在讲师账号WNCD031/woniu123/woniu123
+2.已存在企业C  培训机构/教育/光谷广场/一个人/190876792
+存在企业B  名称ABC/所属行业能源/企业地址武汉市光谷大道/联系人ygl/联系电话：13456789098
+3.已进行解密操作[步骤]1. 进入企业客户模块
+2. 搜索企业名称为培训机构
+[结果]1. 搜索成功
+[期望]1. 进入成功
+2. 搜索失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.进入登录界面[步骤]1. 等待验证码在30s内刷新
+[结果]1. 30秒后验证码未刷新
+[期望]1. 验证码刷新成功</t>
+  </si>
+  <si>
+    <t>[前置条件]
+系统在Linux上部署成功[步骤]1. 输入系统的网址http://192.172.3.111/WoniuBoss2.5/
+[结果]1. 无法访问
+[期望]1. 可以进入蜗牛boss系统的登录界面</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用管理员账号登录成功WNCD000/woniu123
+2.进入行政综合-固定资产领用登记模块，
+3.存在领用固定资产A：领用资产名称为电脑
+4.不存在领用固定资产B：领用资产名称为电视
+[步骤]
+1. 固定资产名称:电视
+2. 点击查询
+[结果]
+2. 新增功能未实现，无法新增数据查询数据
+[期望]
+1. 输入框中完整显示电视
+2. 列表中无任何显示</t>
+  </si>
+  <si>
+    <t>[前置条件]
+进入后台管理角色管理界面
+[步骤]
+1. 点击新增
+2. 输入角色名:空，描述:B
+3. 点击保存
+4. 检查是否成功新增
+[结果]
+1. 弹出新增角色弹窗
+2. 成功输入并显示
+3. 保存成功
+4. 新增成功
+[期望]
+1. 弹出新增角色弹窗
+2. 成功输入并显示
+3. 保存失败，角色名不能为空
+4. 新增失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+进入后台管理角色管理界面
+[步骤]
+1. 点击总经理后的修改按钮
+2. 修改总经理角色名为空
+3. 点击保存按钮
+[结果]
+1. 弹出修改角色的弹窗
+2. 修改成功
+3. 未弹出保存成功或者保存失败
+[期望]
+1. 弹出修改角色的弹窗
+2. 修改成功
+3. 保存失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在有管理员权限账户WNCD000
+woniu123/woniu123
+2.使用账号登录系统
+3.进入后台管理模块，解密
+[步骤]
+1. 点击快捷导航列表的后台管理
+2. 点击资源树按钮
+3. 点击编辑资源
+4. 填写资源名:空
+[结果]
+1. 界面信息完整
+2. 资源树弹窗显示正常
+3. 编辑栏可编辑
+4. 资源树编辑成功
+[期望]
+1. 界面信息完整
+2. 资源树弹窗显示正常
+3. 编辑栏可编辑
+4. 资源树编辑失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在管理员账号wncd000/woniu123/woniu123账号
+2.已进入蜗牛boss系统
+3.存在上传专属的文件
+4.已解密
+[步骤]
+1. 点击市场营销
+2. 点击上传专属
+3. 点击区域为成都
+4. 部门为咨询部
+5. 选择简历文件
+6. 点击上传
+7. 检查是否上传成功
+8. 进入培训资源-分配资源页面
+9. 选择资源分配给咨询师李娇
+10. 查看资源状态
+11. 修改资源状态为条件不符
+12. 点击保存
+13. 查看资源状态
+[结果]
+13. 资源未进入公共池
+[期望]
+1. 成功进入市场营销模块
+2. 弹出上传专属弹窗
+3. 区域选择成功
+4. 部门选择成功
+5. 简历文件选中成功
+6. 简历文件上传成功
+7. 上传专属资源检查成功
+8. 进入培训资源-分配资源页面
+9. 分配资源成功
+10. 资源已到李娇的临时池
+11. 资源状态修改成功
+12. 保存成功
+13. 资源状态修改成功、资源到公共池</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.存在管理员账号wncd000/woniu123/woniu123账号
+2.已进入蜗牛boss系统
+3.存在上传专属的文件
+4.已解密
+[步骤]
+1. 点击市场营销
+2. 点击上传专属
+3. 点击区域为成都
+4. 部门为咨询部
+5. 选择简历文件
+6. 点击上传
+7. 检查是否上传成功
+8. 进入培训资源-分配资源页面
+9. 选择资源分配给咨询师李娇
+10. 查看资源状态
+11. 修改资源状态为条件不符
+12. 点击保存
+13. 查看资源状态
+[结果]
+1. 资源未到公共池
+[期望]
+1. 成功进入市场营销模块
+2. 弹出上传专属弹窗
+3. 区域选择成功
+4. 部门选择成功
+5. 简历文件选中成功
+6. 简历文件上传成功
+7. 上传专属资源检查成功
+8. 进入培训资源-分配资源页面
+9. 分配资源成功
+10. 资源已到李娇的临时池
+11. 资源状态修改成功
+12. 保存成功
+13. 资源状态修改成功、资源到公共池
+</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在咨询主管账号wncd011/woniu123/woniu123
+2.已进入培训资源模块
+3.临时池 存在数据 A 罗艺文 成都 专属 新入库
+数据B 薛敬文	成都	QQ群	新入库	18922220006
+4.已解密
+[步骤]
+1. 点击资源A的跟踪
+2. 点击资源跟踪界面
+3. 将新入库变成已报名
+4. 查看资源A的状态
+[结果]
+1. 状态为：已报名
+[期望]
+1. 弹出跟踪窗口
+2. 可以进入资源跟踪界面
+3. 选择新认领成功
+4. 状态变成已报名</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在咨询主管账号wncd011/woniu123/woniu123
+2.已进入培训资源模块
+3.进入培训资源功能页
+4.已进行解密操作
+[步骤]
+1. 点击新增按钮
+2. 电话号码为187236565878
+3. 姓名：人头狗
+4. 状态选择：新认领
+5. 渠道选择：QQ群
+6. 性别：男、邮箱：8767986@163.com、QQ：8726818167、求职意向：腾讯公司、工作经验选择3年、期望薪水：20000、应聘职位：自动化工程师、
+7. 点击保存
+8. 检查数据是否增加成功
+[结果]
+1. 保存成功
+[期望]
+1. 可以弹出新增界面
+2. 电话号码成功输入
+3. 姓名成功输入成功
+4. 状态选择成功
+5. 渠道选择成功
+6. 选填项可以输入成功
+7. 保存失败
+8. 数据增加成功</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在市场账号WNCD021/woniu123/woniu123
+2.已存在企业C  培训机构/教育/光谷广场/一个人/190876792
+存在企业B  名称ABC/所属行业能源/企业地址武汉市光谷大道/联系人ygl/联系电话：13456789098
+3.已进行解密操作
+[步骤]
+1. 进入企业客户模块
+2. 搜索企业名称为培训机构
+[结果]
+2. 搜索成功
+[期望]
+1. 进入成功
+2. 搜索失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在讲师账号WNCD031/woniu123/woniu123
+2.已存在企业C  培训机构/教育/光谷广场/一个人/190876792
+存在企业B  名称ABC/所属行业能源/企业地址武汉市光谷大道/联系人ygl/联系电话：13456789098
+3.已进行解密操作
+[步骤]
+1. 进入企业客户模块
+2. 搜索企业名称为培训机构
+[结果]
+2. 搜索成功
+[期望]
+1. 进入成功
+2. 搜索失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -957,14 +1668,10 @@
 电话：15099999999
 邮箱：
 qq：3432432
-3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_输入邮箱为企业邮箱显示成功，保存信息时弹窗提示新增员工失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增成功的弹框”，并且员工信列表存在该条员工信息</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -989,14 +1696,10 @@
 电话：15099999999
 邮箱：huahua@woniuxy.com
 qq：3432432
-3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_输入邮箱为微博邮箱显示成功，但保存信息时弹窗提示新增员工失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -1021,14 +1724,10 @@
 电话：15099999999
 邮箱：1221122@sina.com
 qq：3432432
-3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_输入电话号码中包含特殊符号新增员工成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -1055,14 +1754,10 @@
 电话：150999999@@
 邮箱：1221122@qq.com
 qq：3432432
-3. 出现“新增失败”的提示弹框
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_输入电话长度等于10位数新增成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增失败”的提示弹框</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -1089,14 +1784,10 @@
 电话：1509999999
 邮箱：1221122@qq.com
 qq：3432432
-3. 出现“新增失败”的提示弹框
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_输入电话长度等于12位数新增员工成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增失败”的提示弹框</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -1123,14 +1814,10 @@
 电话：150999999999
 邮箱：1221122@qq.com
 qq：3432432
-3. 出现“新增失败”的提示弹框
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_检验电话为空时的新增失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增失败”的提示弹框</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -1155,14 +1842,10 @@
 电话：13099999999
 邮箱：1221122@qq.com
 qq：3432432
-3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_检验输入姓名为全特殊符号的新增失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 [步骤]
@@ -1187,11 +1870,7 @@
 电话：13099999999
 邮箱：1221122@qq.com
 qq：3432432
-3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_检验输入姓名为全英文的新增功能</t>
+3. 出现“新增成功的弹框”，并且员工信息列表存在该条员工信息</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1223,10 +1902,7 @@
 </t>
   </si>
   <si>
-    <t>WB2.5_人事管理_修改QQ为长度等于12位数的修改功能检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 3.存在员工信息A：QQ为15072456的员工信息
@@ -1239,30 +1915,10 @@
 [期望]
 1. 界面出现修改员工信息功能的弹窗
 2. 邮箱输入框中完整显示“893213214122”
-3. 点击保存无反应
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_修改QQ为长度等于5位数的修改功能检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用管理员账号登录成功WNCD000/woniu123，
-2.进入人事管理-员工管理模块
-3.存在员工信息A：QQ为15072455的员工信息[步骤]1. 点击修改按钮
-2. 修改QQ：34232
-3. 点击保存
-[结果]1. QQ长度修改为5位数显示无误，保存成功
-[期望]1. 界面出现修改员工信息功能的弹窗
-2. 邮箱输入框中完整显示“34232”
-3. 点击保存无反应
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_检查修改工号的修改功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 点击保存无反应</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登录成功WNCD000/woniu123，
 2.进入人事管理-员工管理模块
 3.存在员工信息A：工号为WNCD51员工信息
@@ -1276,35 +1932,10 @@
 [期望]
 1. 界面出现修改员工信息功能的弹窗
 2. 工号点击无反应
-3. 修改失败
-</t>
-  </si>
-  <si>
-    <t>WB2.5_人事管理_检查部门、姓名的组合查询功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用管理员账号登录成功WNCD000/woniu123，
-2.进入人事管理-员工管理模块
-3.存在员工信息A：部门为咨询部，姓名为郑雪娇的员工信息
-4.存在员工信息B：部门为咨询部，姓名为李姣的员工信息
-[步骤]
-1. 点击部门下拉框，选择咨询部选项
-2. 点击姓名输入框，输入李娇
-3. 点击查询
-[结果]
-3. 员工信息显示B
-[期望]
-1. 部门下拉框完整显示咨询部
-2. 姓名输入框完整显示李娇
-3. 员工信息列表中只显示员工信息A
-</t>
-  </si>
-  <si>
-    <t>/市场营销(#68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 修改失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.存在有管理员权限账户WNCD000
 woniu123/woniu123
 2.使用账号登录系统
@@ -1317,33 +1948,10 @@
 2. 读取邮箱弹窗不能正常打开
 [期望]
 1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入市场营销模块，解密
-4.已准备有邮箱的学生资源
-5.已准备无邮箱的学生资源
-[步骤]
-1. 点击快捷导航列的市场营销
-2. 点击读取邮箱按钮
-3. 点击确定读取邮箱
-[结果]
-1. 界面显示信息完整
-2. 读取邮箱弹窗不能正常打开
-3. 不能成功读取邮箱通知对应主管分配资源
-[期望]
-1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开
-3. 成功读取邮箱通知对应主管分配资源
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+2. 读取邮箱弹窗正常打开</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.存在咨询主管账号wncd011/woniu123/woniu123
 2.已进入市场营销模块
 [步骤]
@@ -1365,11 +1973,10 @@
 5. 渠道选择成功
 6. 选填项可以输入成功
 7. 保存成功
-8. 数据增加成功
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+8. 数据增加成功</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.存在有管理员权限账户WNCD000
 woniu123/woniu123
 2.使用账号登录系统
@@ -1381,17 +1988,10 @@
 [结果]1. 搜索开始时间能大于结束时间
 [期望]1. 选择开始时间成功
 2. 选择结束时间失败，开始时间不能大于结束时间
-3. 搜索失败
-</t>
-  </si>
-  <si>
-    <t>/学员管理(#71)</t>
-  </si>
-  <si>
-    <t>WB2.5_学员管理管理员权没有请假考勤权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+3. 搜索失败</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用管理员账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入学员管理模块
 [步骤]
@@ -1423,11 +2023,35 @@
 6. 可以进行测评，降级操作
 7. 可以查看
 8. 可以查询分班操作
-9. 可以查看，修改课程，新增排课
-</t>
-  </si>
-  <si>
-    <t>WB2.5_学员请假修改开始小于当前时会成功</t>
+9. 可以查看，修改课程，新增排课</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入学员请假子模块
+3.存在1条学员请假信息
+4.点击学员请假信息修改按钮
+[步骤]
+1. 修改开始时间：当前时间-3
+2. 修改结束时间：开始时间+3
+3. 修改姓名：张三
+4. 修改请假类型：事假
+5. 修改任课老师：代军虎
+6. 点击保存按钮
+[结果]
+1. 修改开始时间成功，信息展示正常
+2. 修改结束时间成功，信息展示正常
+3. 修改姓名成功，信息展示正常
+4. 修改请假类型成功，信息展示正常
+5. 修改任课老师成功，信息展示正常
+6. 保存成功
+[期望]
+1. 修改开始时间成功，信息展示正常
+2. 修改结束时间成功，信息展示正常
+3. 修改姓名成功，信息展示正常
+4. 修改请假类型成功，信息展示正常
+5. 修改任课老师成功，信息展示正常
+6. 保存失败，弹出提示框“保存失败”</t>
   </si>
   <si>
     <t xml:space="preserve">[前置条件]
@@ -1436,11 +2060,11 @@
 3.存在1条学员请假信息
 4.点击学员请假信息修改按钮
 [步骤]
-1. 修改开始时间：当前时间-3
-2. 修改结束时间：开始时间+3
+1. 修改开始时间：当前时间
+2. 修改结束时间：开始时间-3
 3. 修改姓名：张三
 4. 修改请假类型：事假
-5. 修改任课老师：代军虎
+5. 修改任课老师：全部
 6. 点击保存按钮
 [结果]
 1. 修改开始时间成功，信息展示正常
@@ -1459,93 +2083,56 @@
 </t>
   </si>
   <si>
-    <t>WB2.5_学员请假修改结束小于开始时会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入学员请假子模块
-3.存在1条学员请假信息
-4.点击学员请假信息修改按钮
-[步骤]
-1. 修改开始时间：当前时间
-2. 修改结束时间：开始时间-3
-3. 修改姓名：张三
-4. 修改请假类型：事假
-5. 修改任课老师：全部
-6. 点击保存按钮
-[结果]
-1. 修改开始时间成功，信息展示正常
-2. 修改结束时间成功，信息展示正常
-3. 修改姓名成功，信息展示正常
-4. 修改请假类型成功，信息展示正常
-5. 修改任课老师成功，信息展示正常
-6. 保存成功
-[期望]
-1. 修改开始时间成功，信息展示正常
-2. 修改结束时间成功，信息展示正常
-3. 修改姓名成功，信息展示正常
-4. 修改请假类型成功，信息展示正常
-5. 修改任课老师成功，信息展示正常
-6. 保存失败，弹出提示框“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_学员请假新增请假天数无法成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+    <t>[前置条件]
 1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入学员请假子模块
 3.点击新增请假按钮
 4.今日考勤中存在学员信息A
 姓名：张三
 [步骤]
-1. 选择开始时间：当前时间
-2. 选择结束时间：开始时间+3
-3. 查看请假天数
-[结果]
-1. 选择开始时间成功，信息展示正常
-2. 选择结束时间成功，信息展示正常
-3. 请假天数没有展示
-[期望]
-1. 选择开始时间成功，信息展示正常
-2. 选择结束时间成功，信息展示正常
-3. 请假天数展示为3天
-</t>
-  </si>
-  <si>
-    <t>WB2.5_学员请假新增_无开始时间时会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+1. 选择结束时间：当前时间+3
+2. 输入姓名：张三
+3. 选择请假类型：事假
+4. 点击保存按钮
+[结果]
+1. 选择结束时间成功，信息展示正常
+2. 输入姓名成功，信息展示正常
+3. 选择请假类型成功，信息展示正常
+4. 保存成功
+[期望]
+1. 选择结束时间成功，信息展示正常
+2. 输入姓名成功，信息展示正常
+3. 选择请假类型成功，信息展示正常
+4. 保存失败，弹出提示框“保存失败”</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入学员请假子模块
 3.点击新增请假按钮
 4.今日考勤中存在学员信息A
 姓名：张三
 [步骤]
-1. 选择结束时间：当前时间+3
-2. 输入姓名：张三
-3. 选择请假类型：事假
-4. 点击保存按钮
-[结果]
-1. 选择结束时间成功，信息展示正常
-2. 输入姓名成功，信息展示正常
-3. 选择请假类型成功，信息展示正常
-4. 保存成功
-[期望]
-1. 选择结束时间成功，信息展示正常
-2. 输入姓名成功，信息展示正常
-3. 选择请假类型成功，信息展示正常
-4. 保存失败，弹出提示框“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_学员请假新增无结束时间会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+1. 选择开始时间：当前时间-3
+2. 选择结束时间：开始时间+3
+3. 输入姓名：张三
+4. 输入请假类型：事假
+5. 点击保存按钮
+[结果]
+1. 选择开始时间成功，信息展示正常
+2. 选择结束时间成功，信息展示正常
+3. 输入姓名成功，信息展示正常
+4. 选择请假类型成功，信息展示正常
+5. 保存成功
+[期望]
+1. 选择开始时间成功，信息展示正常
+2. 选择结束时间成功，信息展示正常
+3. 输入姓名成功，信息展示正常
+4. 选择请假类型成功，信息展示正常
+5. 保存失败，弹出提示框“保存失败”</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入学员请假子模块
 3.点击新增请假按钮
@@ -1553,34 +2140,7 @@
 姓名：张三
 [步骤]
 1. 选择开始时间：当前时间
-2. 输入姓名：张三
-3. 选择请假类型：事假
-4. 点击保存按钮
-[结果]
-1. 选择开始时间成功，信息展示正常
-2. 输入姓名成功，信息展示正常
-3. 选择请假类型成功，信息展示正常
-4. 保存成功
-[期望]
-1. 选择开始时间成功，信息展示正常
-2. 输入姓名成功，信息展示正常
-3. 选择请假类型成功，信息展示正常
-4. 保存失败，弹出提示框“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_学员请假新增开始小于当前时会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入学员请假子模块
-3.点击新增请假按钮
-4.今日考勤中存在学员信息A
-姓名：张三
-[步骤]
-1. 选择开始时间：当前时间-3
-2. 选择结束时间：开始时间+3
+2. 选择结束时间：当前时间-3
 3. 输入姓名：张三
 4. 输入请假类型：事假
 5. 点击保存按钮
@@ -1595,44 +2155,10 @@
 2. 选择结束时间成功，信息展示正常
 3. 输入姓名成功，信息展示正常
 4. 选择请假类型成功，信息展示正常
-5. 保存失败，弹出提示框“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_学员请假新增结束小于开始时成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入学员请假子模块
-3.点击新增请假按钮
-4.今日考勤中存在学员信息A
-姓名：张三
-[步骤]
-1. 选择开始时间：当前时间
-2. 选择结束时间：当前时间-3
-3. 输入姓名：张三
-4. 输入请假类型：事假
-5. 点击保存按钮
-[结果]
-1. 选择开始时间成功，信息展示正常
-2. 选择结束时间成功，信息展示正常
-3. 输入姓名成功，信息展示正常
-4. 选择请假类型成功，信息展示正常
-5. 保存成功
-[期望]
-1. 选择开始时间成功，信息展示正常
-2. 选择结束时间成功，信息展示正常
-3. 输入姓名成功，信息展示正常
-4. 选择请假类型成功，信息展示正常
-5. 保存失败，弹出提示框“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_课程安排排课新增一条数据时无法保存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+5. 保存失败，弹出提示框“保存失败”</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入课程安排子模块
 3.存在10个讲师
@@ -1664,578 +2190,53 @@
 5. 班级选择成功，信息展示正常
 6. 方向选择成功，信息展示正常
 7. 课程安排选择成功，信息展示正常
-8. 保存成功，弹出提示框“排课完毕”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入课程安排子模块
-3.存在10个讲师
-4.点击新增排课按钮
-5.选择第1个讲师进行排课
+8. 保存成功，弹出提示框“排课完毕”</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入学员请假子模块
+3.点击新增请假按钮
+4.今日考勤中存在学员信息A
+姓名：张三
 [步骤]
 1. 选择开始时间：当前时间
-2. 选择结束时间：开始时间+30
-3. 状态：实训
-4. 教室：教室九
-5. 班级：WNCDC001
-6. 方向：测试
-7. 课程安排：项目阶段第三周
-8. 点击保存并关闭
-[结果]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存失败
-[期望]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存成功，弹出提示框“排课完毕”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入课程安排子模块
-3.存在10个讲师
-4.点击新增排课按钮
-5.选择第1个讲师进行排课
+2. 选择结束时间：开始时间+3
+3. 查看请假天数
+[结果]
+1. 选择开始时间成功，信息展示正常
+2. 选择结束时间成功，信息展示正常
+3. 请假天数没有展示
+[期望]
+1. 选择开始时间成功，信息展示正常
+2. 选择结束时间成功，信息展示正常
+3. 请假天数展示为3天</t>
+  </si>
+  <si>
+    <t>[前置条件]
+1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
+2.进入学员请假子模块
+3.点击新增请假按钮
+4.今日考勤中存在学员信息A
+姓名：张三
 [步骤]
 1. 选择开始时间：当前时间
-2. 选择结束时间：开始时间+30
-3. 状态：实训
-4. 教室：教室九
-5. 班级：WNCDC001
-6. 方向：测试
-7. 课程安排：第一阶段第一周
-8. 点击保存并关闭
-[结果]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存失败
-[期望]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存成功，弹出提示框“排课完毕”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入课程安排子模块
-3.存在10个讲师
-4.点击新增排课按钮
-5.选择第1个讲师进行排课
-[步骤]
-1. 选择开始时间：当前时间
-2. 选择结束时间：开始时间+30
-3. 状态：休息
-4. 教室：教室九
-5. 班级：WNCDC001
-6. 方向：开发
-7. 课程安排：项目阶段第三周
-8. 点击保存并关闭
-[结果]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存失败
-[期望]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存成功，弹出提示框“排课完毕”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用教学主管账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入课程安排子模块
-3.存在10个讲师
-4.点击新增排课按钮
-5.选择第1个讲师进行排课
-[步骤]
-1. 选择开始时间：当前时间
-2. 选择结束时间：开始时间+30
-3. 状态：休息
-4. 教室：教室九
-5. 班级：WNCDC001
-6. 方向：开发
-7. 课程安排：第一阶段第一周
-8. 点击保存并关闭
-[结果]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存失败
-[期望]
-1. 开始时间选择成功，信息展示正常
-2. 结束时间选择成功，信息展示正常
-3. 状态选择成功，信息展示正常
-4. 教室选择成功，信息展示正常
-5. 班级选择成功，信息展示正常
-6. 方向选择成功，信息展示正常
-7. 课程安排选择成功，信息展示正常
-8. 保存成功，弹出提示框“排课完毕”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_测评阶段录入项目实战阶段成绩为特殊字符时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入测评阶段子模块
-3.存在1条学员信息
-4.点击学员信息测评按钮
-[步骤]
-1. 选择阶段：项目实战阶段
-2. 输入成绩：@#￥%
-3. 转就业：否
+2. 输入姓名：张三
+3. 选择请假类型：事假
 4. 点击保存按钮
 [结果]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 转就业选择成功，信息展示正常
+1. 选择开始时间成功，信息展示正常
+2. 输入姓名成功，信息展示正常
+3. 选择请假类型成功，信息展示正常
 4. 保存成功
 [期望]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 转就业选择成功，信息展示正常
-4. 保存失败，弹出提示框：“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改必填项随机填一半时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：空
-4. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 修改失败，弹出提示框：“修改信息不完整”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改电话空时修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：空
-4. 修改最新状态：已失联
-5. 修改来源：其他
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“电话输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改电话特殊字符时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：你好
-4. 修改最新状态：已休学
-5. 修改来源：其他
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“电话输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改电话汉字时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：你好
-4. 修改最新状态：已就业
-5. 修改来源：其他
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“电话输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改电话字母时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：fsafdsfs
-4. 修改最新状态：转就业
-5. 修改来源：其他
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“电话输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改电话12位数字时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：156789999990
-4. 修改最新状态：在校学习
-5. 修改来源：其他
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“电话输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_基本信息修改电话10位数字会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：张三
-3. 修改电话：1567899999
-4. 修改最新状态：已退学
-5. 修改来源：其他
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“电话输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_修改姓名空时会修改成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统
-2.进入学员管理模块，已解密
-3.进入基本信息子模块
-4.存在1条学员信息
-[步骤]
-1. 点击学员信息修改按钮
-2. 修改姓名：空
-3. 修改电话：15678999999
-4. 修改最新状态：未开班
-5. 修改来源：智联招聘
-6. 点击保存按钮
-[结果]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改成功
-[期望]
-1. 按钮点击成功，弹出修改学员信息页面
-2. 姓名修改成功，信息展示正常
-3. 电话修改成功，信息展示正常
-4. 最新状态修改成功，信息展示正常
-5. 来源修改成功，信息展示正常
-6. 修改失败，弹出提示框：“姓名输入错误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_测评阶段录入项目实战阶段成绩为字母时会保存成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入测评阶段子模块
-3.存在1条学员信息
-4.点击学员信息测评按钮
-[步骤]
-1. 选择阶段：项目实战阶段
-2. 输入成绩：hundred
-3. 转就业：否
-4. 点击保存按钮
-[结果]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 转就业选择成功，信息展示正常
-4. 保存成功
-[期望]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 转就业选择成功，信息展示正常
-4. 保存失败，弹出提示框：“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_测评阶段录入专业第三阶段成绩为汉字会录入成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入测评阶段子模块
-3.存在1条学员信息
-4.点击学员信息测评按钮
-[步骤]
-1. 选择阶段：专业第三阶段
-2. 输入成绩：一百
-3. 点击保存按钮
-[结果]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 保存成功
-[期望]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 保存失败，弹出提示框：“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_测评阶段录入专业第二阶段成绩为空时会录入成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入测评阶段子模块
-3.存在1条学员信息
-4.点击学员信息测评按钮
-[步骤]
-1. 选择阶段：专业第二阶段
-2. 点击保存按钮
-[结果]
-1. 选择阶段成功，信息展示正常
-2. 保存成功
-[期望]
-1. 选择阶段成功，信息展示正常
-2. 保存失败，弹出提示框：“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_测评阶段录入阶段全部成绩小于0会录入成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入测评阶段子模块
-3.存在1条学员信息
-4.点击学员信息测评按钮
-[步骤]
-1. 选择阶段：全部
-2. 输入成绩：-1
-3. 点击保存按钮
-[结果]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 保存成功
-[期望]
-1. 选择阶段成功，信息展示正常
-2. 输入成绩成功，信息展示正常
-3. 保存失败，弹出提示框：“保存失败”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_今日晨考录入分数为空保存会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入今日晨考子模块
-3.存在1条学员信息
-[步骤]
-1. 点击学员信息的晨考按钮
-2. 选择方式：其他方式
-3. 输入分数：
-4. 输入题目：1+1=?
-5. 点击保存按钮
-[结果]
-1. 晨考按钮点击成功，弹出“晨考记录录入”界面
-2. 方式选择成功，信息展示正常
-3. 分数输入成功，信息展示正常
-4. 题目输入成功，信息展示正常
-5. 保存成功
-[期望]
-1. 晨考按钮点击成功，弹出“晨考记录录入”界面
-2. 方式选择成功，信息展示正常
-3. 分数输入成功，信息展示正常
-4. 题目输入成功，信息展示正常
-5. 保存失败，弹出提示框：“分数输入有误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_今日晨考录入分数特殊字符保存会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入今日晨考子模块
-3.存在1条学员信息
-[步骤]
-1. 点击学员信息的晨考按钮
-2. 选择方式：随堂作业
-3. 输入分数：@#￥%
-4. 输入题目：1+1=?
-5. 点击保存按钮
-[结果]
-5. 保存成功
-[期望]
-1. 晨考按钮点击成功，弹出“晨考记录录入”界面
-2. 方式选择成功，信息展示正常
-3. 分数输入成功，信息展示正常
-4. 题目输入成功，信息展示正常
-5. 保存失败，弹出提示框：“分数输入有误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_今日晨考录入_分数字母</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+1. 选择开始时间成功，信息展示正常
+2. 输入姓名成功，信息展示正常
+3. 选择请假类型成功，信息展示正常
+4. 保存失败，弹出提示框“保存失败”</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入今日晨考子模块
 3.存在1条学员信息
@@ -2252,14 +2253,10 @@
 2. 方式选择成功，信息展示正常
 3. 分数输入成功，信息展示正常
 4. 题目输入成功，信息展示正常
-5. 保存失败，弹出提示框：“分数输入有误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_今日晨考录入分数汉字保存会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
+5. 保存失败，弹出提示框：“分数输入有误”</t>
+  </si>
+  <si>
+    <t>[前置条件]
 1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入今日晨考子模块
 3.存在1条学员信息
@@ -2276,68 +2273,7 @@
 2. 方式选择成功，信息展示正常
 3. 分数输入成功，信息展示正常
 4. 题目输入成功，信息展示正常
-5. 保存失败，弹出提示框：“分数输入有误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_今日晨考录入分数小于0保存会成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[前置条件]
-1.使用讲师账号登陆WoniuBoss系统，进入学员管理模块，已解密
-2.进入今日晨考子模块
-3.存在1条学员信息
-[步骤]
-1. 点击学员信息的晨考按钮
-2. 选择方式：随堂问答
-3. 输入分数：-1
-4. 输入题目：1+1=?
-5. 点击保存按钮
-[结果]
-5. 保存成功
-[期望]
-1. 晨考按钮点击成功，弹出“晨考记录录入”界面
-2. 方式选择成功，信息展示正常
-3. 分数输入成功，信息展示正常
-4. 题目输入成功，信息展示正常
-5. 保存失败，弹出提示框：“分数输入有误”
-</t>
-  </si>
-  <si>
-    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_新增角色名为空保存成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_新增角色保存失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_修改角色名为空成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱功能无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱功能有邮箱读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_新增网络保存无提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_能够搜索开始时间大于结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_菜单管理资源树能编辑为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+5. 保存失败，弹出提示框：“分数输入有误”</t>
   </si>
 </sst>
 </file>
@@ -2717,7 +2653,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2663,7 @@
     <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1"/>
     <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
@@ -2771,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -2780,16 +2716,16 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2800,7 +2736,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -2809,16 +2745,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2826,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -2838,16 +2774,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2855,11 +2791,11 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
@@ -2867,16 +2803,16 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2884,10 +2820,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -2896,16 +2832,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2913,10 +2849,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2925,16 +2861,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2942,28 +2878,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2971,10 +2907,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -2983,16 +2919,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3000,10 +2936,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -3012,16 +2948,16 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3029,10 +2965,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -3041,16 +2977,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3058,10 +2994,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -3070,16 +3006,16 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3087,10 +3023,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -3099,16 +3035,16 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3116,10 +3052,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -3128,16 +3064,16 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3145,10 +3081,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -3157,16 +3093,16 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3174,10 +3110,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -3186,16 +3122,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3203,10 +3139,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -3215,16 +3151,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3232,10 +3168,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -3244,16 +3180,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3261,10 +3197,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -3273,13 +3209,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3288,10 +3224,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -3300,13 +3236,13 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3315,10 +3251,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -3327,16 +3263,16 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3344,10 +3280,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -3356,16 +3292,16 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3373,10 +3309,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -3385,16 +3321,16 @@
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3402,10 +3338,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -3414,16 +3350,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3431,10 +3367,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
@@ -3443,16 +3379,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3460,10 +3396,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -3472,16 +3408,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3489,10 +3425,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -3501,16 +3437,16 @@
         <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3518,10 +3454,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -3530,16 +3466,16 @@
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3547,10 +3483,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -3559,16 +3495,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3576,10 +3512,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -3588,16 +3524,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3605,10 +3541,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -3617,16 +3553,16 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3634,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -3646,16 +3582,16 @@
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3663,10 +3599,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -3675,16 +3611,16 @@
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3692,10 +3628,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
@@ -3704,16 +3640,16 @@
         <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3721,10 +3657,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -3733,16 +3669,16 @@
         <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3750,10 +3686,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
@@ -3762,16 +3698,16 @@
         <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3779,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
@@ -3791,16 +3727,16 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3808,10 +3744,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
@@ -3820,16 +3756,16 @@
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3837,10 +3773,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -3849,16 +3785,16 @@
         <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3866,10 +3802,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -3878,16 +3814,16 @@
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3895,10 +3831,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -3907,16 +3843,16 @@
         <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3924,10 +3860,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -3936,16 +3872,16 @@
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3953,10 +3889,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
@@ -3965,16 +3901,16 @@
         <v>3</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3982,10 +3918,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
@@ -3994,16 +3930,16 @@
         <v>3</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4011,10 +3947,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -4023,16 +3959,16 @@
         <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4040,10 +3976,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
@@ -4052,16 +3988,16 @@
         <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4069,10 +4005,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D47" s="2">
         <v>3</v>
@@ -4081,16 +4017,16 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4098,10 +4034,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -4110,16 +4046,16 @@
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4127,10 +4063,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
@@ -4139,16 +4075,16 @@
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4156,10 +4092,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2">
         <v>3</v>
@@ -4168,16 +4104,16 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4185,10 +4121,10 @@
         <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2">
         <v>3</v>
@@ -4197,16 +4133,16 @@
         <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4214,10 +4150,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
@@ -4226,13 +4162,13 @@
         <v>3</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -4241,10 +4177,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2">
         <v>3</v>
@@ -4253,16 +4189,16 @@
         <v>3</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4270,10 +4206,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
@@ -4282,16 +4218,16 @@
         <v>3</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4299,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -4311,16 +4247,16 @@
         <v>3</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4328,10 +4264,10 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2">
         <v>3</v>
@@ -4340,16 +4276,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4357,10 +4293,10 @@
         <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2">
         <v>3</v>
@@ -4369,16 +4305,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4386,10 +4322,10 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
@@ -4398,16 +4334,16 @@
         <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4415,10 +4351,10 @@
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D59" s="2">
         <v>3</v>
@@ -4427,16 +4363,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4444,10 +4380,10 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
@@ -4456,16 +4392,16 @@
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4473,10 +4409,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -4485,16 +4421,16 @@
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4502,10 +4438,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -4514,16 +4450,16 @@
         <v>3</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4531,10 +4467,10 @@
         <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D63" s="2">
         <v>3</v>
@@ -4543,16 +4479,16 @@
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4560,10 +4496,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D64" s="2">
         <v>3</v>
@@ -4572,16 +4508,16 @@
         <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4589,10 +4525,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D65" s="2">
         <v>3</v>
@@ -4601,16 +4537,16 @@
         <v>3</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4618,10 +4554,10 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D66" s="2">
         <v>3</v>
@@ -4630,16 +4566,16 @@
         <v>3</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4647,10 +4583,10 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D67" s="2">
         <v>3</v>
@@ -4659,16 +4595,16 @@
         <v>3</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4676,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
@@ -4688,16 +4624,16 @@
         <v>3</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4705,10 +4641,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="D69" s="2">
         <v>3</v>
@@ -4717,16 +4653,16 @@
         <v>3</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4734,10 +4670,10 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2">
         <v>3</v>
@@ -4746,16 +4682,16 @@
         <v>3</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4763,10 +4699,10 @@
         <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D71" s="2">
         <v>3</v>
@@ -4775,16 +4711,16 @@
         <v>3</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4792,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
@@ -4804,16 +4740,16 @@
         <v>3</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4821,10 +4757,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
@@ -4833,16 +4769,16 @@
         <v>3</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4850,10 +4786,10 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D74" s="2">
         <v>3</v>
@@ -4862,16 +4798,16 @@
         <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4879,10 +4815,10 @@
         <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D75" s="2">
         <v>3</v>
@@ -4891,16 +4827,16 @@
         <v>3</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4908,10 +4844,10 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D76" s="2">
         <v>3</v>
@@ -4920,16 +4856,16 @@
         <v>3</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4937,10 +4873,10 @@
         <v>9</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D77" s="2">
         <v>3</v>
@@ -4949,16 +4885,16 @@
         <v>3</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4966,10 +4902,10 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
@@ -4978,16 +4914,16 @@
         <v>3</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4995,10 +4931,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D79" s="2">
         <v>3</v>
@@ -5007,16 +4943,16 @@
         <v>3</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5024,11 +4960,11 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D80" s="2">
         <v>3</v>
       </c>
@@ -5036,16 +4972,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5053,10 +4989,10 @@
         <v>9</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="D81" s="2">
         <v>3</v>
@@ -5065,16 +5001,16 @@
         <v>3</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5082,10 +5018,10 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D82" s="2">
         <v>3</v>
@@ -5094,16 +5030,16 @@
         <v>3</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5111,10 +5047,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="D83" s="2">
         <v>3</v>
@@ -5123,16 +5059,16 @@
         <v>3</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5140,10 +5076,10 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D84" s="2">
         <v>3</v>
@@ -5152,16 +5088,16 @@
         <v>3</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5169,10 +5105,10 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D85" s="2">
         <v>3</v>
@@ -5181,16 +5117,16 @@
         <v>3</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6548472D-3ECF-49B1-BA9B-D65722DD724E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099BFD9-C841-454C-BEE9-9AD6E0784C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2653,7 +2653,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\woniuboss2.5\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D907A-C32F-4A0D-A50B-138B8B88BACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF07C41-B59F-40E7-AF12-6EB3D4AD546B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="woniuboss2.5" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">woniuboss2.5!$A$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">woniuboss2.5!$A$1:$I$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="177">
   <si>
     <t>所属项目</t>
   </si>
@@ -535,28 +535,6 @@
     <t>/市场营销(#68)</t>
   </si>
   <si>
-    <t xml:space="preserve">[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入市场营销模块，解密
-4.已准备有邮箱的学生资源
-5.已准备无邮箱的学生资源
-[步骤]
-1. 点击快捷导航列的市场营销
-2. 点击读取邮箱按钮
-3. 点击确定读取邮箱
-[结果]
-1. 界面显示信息完整
-2. 读取邮箱弹窗不能正常打开
-3. 不能成功读取邮箱通知对应主管分配资源
-[期望]
-1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开
-3. 成功读取邮箱通知对应主管分配资源
-</t>
-  </si>
-  <si>
     <t>/学员管理(#71)</t>
   </si>
   <si>
@@ -1179,30 +1157,6 @@
 4. 题目输入成功，信息展示正常
 5. 保存失败，弹出提示框：“分数输入有误”
 </t>
-  </si>
-  <si>
-    <t>WB2.5_市场营销模块，邮箱中有邮件时读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理_修改角色名为空成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱功能无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_读取邮箱功能有邮箱读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_新增网络保存无提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销_能够搜索开始时间大于结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WB2.5_后台管理_菜单管理资源树能编辑为空</t>
@@ -1853,31 +1807,6 @@
   </si>
   <si>
     <t>[前置条件]
-1.存在咨询主管账号wncd011/woniu123/woniu123
-2.已进入市场营销模块
-[步骤]
-1. 点击新增按钮
-2. 电话号码为187236565878
-3. 姓名为劫
-4. 状态新认领
-5. 渠道为QQ群
-6. 性别男、邮箱为8767886@163.com、QQ为8726718167、学校为兰州大学、专业为计算机、求职意向为百度公司、工作经验选择1年、期望薪水10000、应聘职位测试工程师、年龄28、教育经历2014-2017 兰州大学学习、工作经历2017-9至2018-9在京东送快递、最后跟踪2020-05-01
-7. 点击保存
-8. 检查数据是否增加成功
-[结果]
-7. 点击保存无提示
-[期望]
-1. 可以弹出新增界面
-2. 电话号码成功输入
-3. 姓名成功输入成功
-4. 状态选择成功
-5. 渠道选择成功
-6. 选填项可以输入成功
-7. 保存成功
-8. 数据增加成功</t>
-  </si>
-  <si>
-    <t>[前置条件]
 1.使用管理员账号登陆WoniuBoss系统，进入学员管理模块，已解密
 2.进入学员管理模块
 [步骤]
@@ -2163,26 +2092,6 @@
   </si>
   <si>
     <t>[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入市场营销模块，解密
-4.已准备有邮箱的学生资源
-5.已准备无邮箱的学生资源
-[步骤]
-1. 点击快捷导航列的市场营销
-2. 点击读取邮箱按钮
-3. 点击确定读取邮箱
-[结果]
-3. 无法成功读取邮箱通知对应主管分配资源
-[期望]
-1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开
-3. 成功读取邮箱通知对应主管分配资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[前置条件]
 进入后台管理角色管理界面
 [步骤]
 1. 点击新增
@@ -2199,10 +2108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WB2.5_后台管理_新增角色为空保存成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[前置条件]
 进入后台管理角色管理界面
 [步骤]
@@ -2235,22 +2140,6 @@
 2. 资源树弹窗显示正常
 3. 编辑栏可编辑
 4. 资源树编辑失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入市场营销模块，解密
-[步骤]
-1. 点击快捷导航列的市场营销
-2. 点击读取邮箱按钮
-[结果]
-2. 读取邮箱弹窗不能正常打开
-[期望]
-1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2267,6 +2156,72 @@
 [期望]1. 选择开始时间成功
 2. 选择结束时间失败，开始时间不能大于结束时间
 3. 搜索失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理新增角色功能新增角色，角色名为空保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理模块修改功能，修改角色名为空保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块读取邮箱功能有邮箱读取失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在有管理员权限账户WNCD000
+woniu123/woniu123
+2.使用账号登录系统
+3.进入市场营销模块，解密
+4.已准备有邮箱的学生资源
+5.已准备无邮箱的学生资源
+[步骤]
+1. 点击快捷导航列的市场营销
+2. 点击读取邮箱按钮
+3. 点击确定读取邮箱
+[结果]
+2. 读取邮箱弹窗不能正常打开
+[期望]
+1. 界面显示信息完整
+2. 读取邮箱弹窗正常打开
+3. 成功读取邮箱通知对应主管分配资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块新增网络功能保存无提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在咨询主管账号wncd011/woniu123/woniu123
+2.已进入市场营销模块
+[步骤]
+1. 点击新增按钮
+2. 电话号码为187236565878
+3. 姓名为劫
+4. 状态新认领
+5. 渠道为QQ群
+6. 性别男、邮箱为8767886@163.com、QQ为8726718167、学校为兰州大学、专业为计算机、求职意向为百度公司、工作经验选择1年、期望薪水10000、应聘职位测试工程师、年龄28、教育经历2014-2017 兰州大学学习、工作经历2017-9至2018-9在京东送快递、最后跟踪2020-05-01
+7. 点击保存
+8. 检查数据是否增加成功
+[结果]
+7. 点击保存无提示
+[期望]
+1. 可以弹出新增界面
+2. 电话号码成功输入
+3. 姓名成功输入成功
+4. 状态选择成功
+5. 渠道选择成功
+6. 选填项可以输入成功
+7. 保存成功
+8. 数据增加成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块搜索功能，能搜索开始时间大于结束时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2286,11 +2241,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2641,11 +2598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2691,25 +2647,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2720,15 +2676,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2737,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -2749,7 +2705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2766,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -2778,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2786,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2795,7 +2751,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -2807,15 +2763,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2824,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -2836,7 +2792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2800,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2853,19 +2809,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2829,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2882,19 +2838,19 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2858,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2911,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -2923,7 +2879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2940,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -2952,7 +2908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2960,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -2969,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -2981,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2989,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2998,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -3010,7 +2966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3018,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -3027,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -3039,7 +2995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3047,7 +3003,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -3056,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -3068,15 +3024,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -3085,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -3097,24 +3053,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -3126,24 +3082,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>176</v>
+      <c r="C17" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -3155,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3163,7 +3119,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -3172,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -3180,28 +3136,26 @@
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>178</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -3209,9 +3163,11 @@
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3228,19 +3184,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -3248,28 +3204,28 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3277,7 +3233,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3286,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -3298,7 +3254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3262,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -3315,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -3327,7 +3283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -3335,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3344,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -3356,7 +3312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -3364,7 +3320,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -3373,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -3385,15 +3341,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -3402,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
@@ -3414,7 +3370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3422,7 +3378,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -3431,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
@@ -3443,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3451,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -3460,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -3472,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +3436,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -3489,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
@@ -3501,7 +3457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3509,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -3518,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
@@ -3530,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3494,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -3547,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
@@ -3559,7 +3515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3567,7 +3523,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -3576,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
@@ -3588,15 +3544,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -3605,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -3617,7 +3573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3625,7 +3581,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -3634,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
@@ -3646,15 +3602,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -3663,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -3675,7 +3631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3683,7 +3639,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -3692,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -3704,7 +3660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3712,7 +3668,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -3721,7 +3677,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
@@ -3733,7 +3689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3741,7 +3697,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -3750,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -3762,7 +3718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -3770,7 +3726,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -3779,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -3791,7 +3747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3755,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -3808,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -3820,7 +3776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +3784,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -3837,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -3849,7 +3805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3813,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -3866,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
@@ -3878,7 +3834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -3886,7 +3842,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -3895,7 +3851,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -3907,7 +3863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3915,7 +3871,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -3924,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -3936,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3944,7 +3900,7 @@
         <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -3953,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -3965,7 +3921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +3929,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -3982,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -3994,7 +3950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +3958,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -4011,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
@@ -4023,7 +3979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -4031,7 +3987,7 @@
         <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -4040,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -4052,15 +4008,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -4069,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -4077,19 +4033,17 @@
       <c r="H49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>127</v>
+      <c r="C50" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -4097,8 +4051,8 @@
       <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>179</v>
+      <c r="F50" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -4110,15 +4064,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>128</v>
+      <c r="C51" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -4126,8 +4080,8 @@
       <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>76</v>
+      <c r="F51" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
@@ -4135,17 +4089,19 @@
       <c r="H51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -4154,153 +4110,153 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>3</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
-        <v>3</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
       </c>
@@ -4311,15 +4267,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -4328,7 +4284,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
@@ -4340,15 +4296,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -4357,7 +4313,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -4369,15 +4325,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -4386,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -4398,12 +4354,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>85</v>
@@ -4415,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -4427,15 +4383,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
@@ -4444,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>11</v>
@@ -4456,15 +4412,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -4473,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
@@ -4485,15 +4441,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -4502,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -4514,15 +4470,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -4531,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -4543,15 +4499,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -4560,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -4572,15 +4528,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -4589,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -4601,15 +4557,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -4618,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -4630,15 +4586,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -4647,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
@@ -4659,15 +4615,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -4676,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -4688,15 +4644,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -4705,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -4717,15 +4673,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -4734,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
@@ -4746,15 +4702,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -4763,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
@@ -4775,15 +4731,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -4792,7 +4748,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
@@ -4804,15 +4760,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -4821,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
@@ -4833,15 +4789,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -4850,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>11</v>
@@ -4862,15 +4818,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -4879,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
@@ -4891,15 +4847,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
@@ -4908,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -4920,15 +4876,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -4937,7 +4893,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>11</v>
@@ -4949,15 +4905,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -4966,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>11</v>
@@ -4978,15 +4934,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -4995,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>11</v>
@@ -5007,15 +4963,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -5024,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>11</v>
@@ -5036,76 +4992,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="1">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1">
-        <v>3</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="1">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1">
-        <v>3</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I84" xr:uid="{C69E4D3C-A835-459D-AE4A-4DBACAEEE872}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="/后台管理(#76)"/>
-        <filter val="/市场营销(#68)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I84">
-    <sortCondition ref="B2"/>
-  </sortState>
+  <autoFilter ref="A1:I82" xr:uid="{C69E4D3C-A835-459D-AE4A-4DBACAEEE872}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\woniuboss2.5\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF07C41-B59F-40E7-AF12-6EB3D4AD546B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271E9EC-914F-4D3E-9A1D-EEF68C213D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,23 +2094,6 @@
     <t>[前置条件]
 进入后台管理角色管理界面
 [步骤]
-1. 点击新增
-2. 输入角色名:空，描述:B
-3. 点击保存
-4. 检查是否成功新增
-[结果]
-4. 新增成功
-[期望]
-1. 弹出新增角色弹窗
-2. 成功输入并显示
-3. 保存失败，角色名不能为空
-4. 新增失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[前置条件]
-进入后台管理角色管理界面
-[步骤]
 1. 点击总经理后的修改按钮
 2. 修改总经理角色名为空
 3. 点击保存按钮
@@ -2140,6 +2123,88 @@
 2. 资源树弹窗显示正常
 3. 编辑栏可编辑
 4. 资源树编辑失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理模块修改功能，修改角色名为空保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块读取邮箱功能有邮箱读取失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在有管理员权限账户WNCD000
+woniu123/woniu123
+2.使用账号登录系统
+3.进入市场营销模块，解密
+4.已准备有邮箱的学生资源
+5.已准备无邮箱的学生资源
+[步骤]
+1. 点击快捷导航列的市场营销
+2. 点击读取邮箱按钮
+3. 点击确定读取邮箱
+[结果]
+2. 读取邮箱弹窗不能正常打开
+[期望]
+1. 界面显示信息完整
+2. 读取邮箱弹窗正常打开
+3. 成功读取邮箱通知对应主管分配资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块新增网络功能保存无提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[前置条件]
+1.存在咨询主管账号wncd011/woniu123/woniu123
+2.已进入市场营销模块
+[步骤]
+1. 点击新增按钮
+2. 电话号码为187236565878
+3. 姓名为劫
+4. 状态新认领
+5. 渠道为QQ群
+6. 性别男、邮箱为8767886@163.com、QQ为8726718167、学校为兰州大学、专业为计算机、求职意向为百度公司、工作经验选择1年、期望薪水10000、应聘职位测试工程师、年龄28、教育经历2014-2017 兰州大学学习、工作经历2017-9至2018-9在京东送快递、最后跟踪2020-05-01
+7. 点击保存
+8. 检查数据是否增加成功
+[结果]
+7. 点击保存无提示
+[期望]
+1. 可以弹出新增界面
+2. 电话号码成功输入
+3. 姓名成功输入成功
+4. 状态选择成功
+5. 渠道选择成功
+6. 选填项可以输入成功
+7. 保存成功
+8. 数据增加成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_市场营销模块搜索功能，能搜索开始时间大于结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_后台管理新增角色时角色名不能空保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[前置条件]
+进入后台管理角色管理界面
+[步骤]
+1. 点击新增
+2. 输入角色名:空，描述:B
+3. 点击保存
+4. 检查是否成功新增
+[结果]
+3. 保存成功
+4. 新增成功
+[期望]
+3. 保存失败，角色名不能保存为空
+4. 新增失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2152,76 +2217,10 @@
 5.已存在T-3到T-1的数据[步骤]1. 点击选择时间的开始时间框，选择开始时间为T+3
 2. 选择结束时间为T
 3. 点击搜索按钮；
-[结果]2. 搜索开始时间能大于结束时间
-[期望]1. 选择开始时间成功
-2. 选择结束时间失败，开始时间不能大于结束时间
-3. 搜索失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理新增角色功能新增角色，角色名为空保存成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_后台管理模块修改功能，修改角色名为空保存成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销模块读取邮箱功能有邮箱读取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[前置条件]
-1.存在有管理员权限账户WNCD000
-woniu123/woniu123
-2.使用账号登录系统
-3.进入市场营销模块，解密
-4.已准备有邮箱的学生资源
-5.已准备无邮箱的学生资源
-[步骤]
-1. 点击快捷导航列的市场营销
-2. 点击读取邮箱按钮
-3. 点击确定读取邮箱
-[结果]
-2. 读取邮箱弹窗不能正常打开
-[期望]
-1. 界面显示信息完整
-2. 读取邮箱弹窗正常打开
-3. 成功读取邮箱通知对应主管分配资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销模块新增网络功能保存无提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[前置条件]
-1.存在咨询主管账号wncd011/woniu123/woniu123
-2.已进入市场营销模块
-[步骤]
-1. 点击新增按钮
-2. 电话号码为187236565878
-3. 姓名为劫
-4. 状态新认领
-5. 渠道为QQ群
-6. 性别男、邮箱为8767886@163.com、QQ为8726718167、学校为兰州大学、专业为计算机、求职意向为百度公司、工作经验选择1年、期望薪水10000、应聘职位测试工程师、年龄28、教育经历2014-2017 兰州大学学习、工作经历2017-9至2018-9在京东送快递、最后跟踪2020-05-01
-7. 点击保存
-8. 检查数据是否增加成功
-[结果]
-7. 点击保存无提示
-[期望]
-1. 可以弹出新增界面
-2. 电话号码成功输入
-3. 姓名成功输入成功
-4. 状态选择成功
-5. 渠道选择成功
-6. 选填项可以输入成功
-7. 保存成功
-8. 数据增加成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB2.5_市场营销模块搜索功能，能搜索开始时间大于结束时间</t>
+[结果]
+2. 搜索开始时间能大于结束时间
+[期望]
+2. 开始时间不能大于结束时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2601,7 +2600,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -3069,8 +3068,8 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>166</v>
+      <c r="F16" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -3090,7 +3089,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -3099,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -3128,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -4016,7 +4015,7 @@
         <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -4025,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -4043,7 +4042,7 @@
         <v>75</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -4052,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -4064,7 +4063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4072,16 +4071,16 @@
         <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
@@ -4993,7 +4992,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I82" xr:uid="{C69E4D3C-A835-459D-AE4A-4DBACAEEE872}"/>
+  <autoFilter ref="A1:I82" xr:uid="{5054F7E9-7067-41C2-B8F2-5709CECF3C12}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\github_base\woniuboss2.5\02 系统测试\05 项目成果输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271E9EC-914F-4D3E-9A1D-EEF68C213D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F3B189-4394-43B3-8E5A-F8E93A53E268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="woniuboss2.5" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">woniuboss2.5!$A$1:$I$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">woniuboss2.5!$A$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="180">
   <si>
     <t>所属项目</t>
   </si>
@@ -2221,6 +2221,30 @@
 2. 搜索开始时间能大于结束时间
 [期望]
 2. 开始时间不能大于结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/报表中心(#67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[前置条件]
+1.存在有管理员权限账户WNCD000
+woniu123/woniu123
+2.使用账号登录系统
+3.进入报表中心模块，解密
+4.进入市场部界面
+5.已新增学生test01
+[步骤]
+1. 点击当期按钮
+[结果]
+1. 新增资源后数据未更新
+[期望]
+1. 查询成功，显示数据正确
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2.5_报表中心报表数据未更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2280,7 +2304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,6 +2315,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2597,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2641,9 @@
     <col min="7" max="7" width="10" style="3"/>
     <col min="8" max="8" width="11.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10" style="3"/>
+    <col min="10" max="12" width="10" style="3"/>
+    <col min="13" max="13" width="29.5546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2675,24 +2704,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -2712,7 +2741,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2721,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -2733,7 +2762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2741,46 +2770,46 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2808,19 +2837,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2828,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2837,16 +2866,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -2857,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2866,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -2878,7 +2907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2886,7 +2915,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2895,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -2907,7 +2936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2915,7 +2944,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -2924,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -2936,7 +2965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2944,7 +2973,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2953,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -2965,7 +2994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2982,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -2994,7 +3023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3002,75 +3031,75 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3081,7 +3110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3089,16 +3118,16 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>166</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -3110,61 +3139,61 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3174,7 +3203,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3183,13 +3212,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
@@ -3203,22 +3232,22 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
@@ -3232,7 +3261,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3241,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -3261,7 +3290,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -3270,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -3290,7 +3319,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3299,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -3319,46 +3348,46 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -3386,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
@@ -3398,7 +3427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3406,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -3415,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -3427,7 +3456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3435,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -3444,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
@@ -3456,7 +3485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3464,7 +3493,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -3473,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
@@ -3485,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3522,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -3502,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
@@ -3514,7 +3543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3522,45 +3551,45 @@
         <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -3580,45 +3609,45 @@
         <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
@@ -3638,7 +3667,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -3647,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -3667,7 +3696,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -3676,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
@@ -3696,7 +3725,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -3705,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -3725,7 +3754,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -3734,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -3754,7 +3783,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -3763,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -3783,7 +3812,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -3792,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -3812,7 +3841,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -3821,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
@@ -3841,7 +3870,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -3850,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -3870,7 +3899,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -3879,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -3891,7 +3920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3899,7 +3928,7 @@
         <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -3908,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -3920,7 +3949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3928,7 +3957,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -3937,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -3949,7 +3978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -3957,7 +3986,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -3966,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
@@ -3978,7 +4007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -3986,55 +4015,57 @@
         <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -4042,7 +4073,7 @@
         <v>75</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -4051,7 +4082,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -4059,11 +4090,9 @@
       <c r="H50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4071,46 +4100,46 @@
         <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>3</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
       </c>
@@ -4121,7 +4150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="405" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -4129,7 +4158,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -4138,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
@@ -4150,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -4158,7 +4187,7 @@
         <v>76</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -4167,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>11</v>
@@ -4179,7 +4208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -4187,7 +4216,7 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1">
         <v>3</v>
@@ -4196,7 +4225,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>11</v>
@@ -4208,7 +4237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -4216,7 +4245,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -4225,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -4245,7 +4274,7 @@
         <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
@@ -4254,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
@@ -4266,7 +4295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -4274,7 +4303,7 @@
         <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -4283,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
@@ -4303,7 +4332,7 @@
         <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -4312,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -4324,7 +4353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4332,7 +4361,7 @@
         <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -4341,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -4370,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -4399,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>11</v>
@@ -4428,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
@@ -4457,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -4469,7 +4498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4506,7 @@
         <v>76</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -4486,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -4506,7 +4535,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -4515,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -4527,7 +4556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -4535,7 +4564,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -4544,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
@@ -4564,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -4573,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>11</v>
@@ -4593,7 +4622,7 @@
         <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -4602,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>11</v>
@@ -4622,7 +4651,7 @@
         <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -4631,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -4651,7 +4680,7 @@
         <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -4660,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -4680,7 +4709,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -4689,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
@@ -4709,7 +4738,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -4718,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
@@ -4730,7 +4759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4738,7 +4767,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -4747,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
@@ -4759,7 +4788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -4767,7 +4796,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -4776,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
@@ -4788,7 +4817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -4796,7 +4825,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -4805,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>11</v>
@@ -4817,7 +4846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -4825,7 +4854,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -4834,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>11</v>
@@ -4846,7 +4875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4883,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
@@ -4863,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -4875,7 +4904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -4883,7 +4912,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -4892,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>11</v>
@@ -4904,7 +4933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -4912,7 +4941,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -4921,7 +4950,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>11</v>
@@ -4933,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -4941,7 +4970,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -4950,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>11</v>
@@ -4962,7 +4991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -4970,29 +4999,58 @@
         <v>76</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="1">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
-        <v>3</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="1" t="s">
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I82" xr:uid="{5054F7E9-7067-41C2-B8F2-5709CECF3C12}"/>
+  <autoFilter ref="A1:I83" xr:uid="{5054F7E9-7067-41C2-B8F2-5709CECF3C12}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23565" windowHeight="10140"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="woniuboss2.5" sheetId="4" r:id="rId1"/>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -1436,8 +1436,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1456,7 +1456,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,14 +1478,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1487,12 +1554,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1500,53 +1568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,17 +1583,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,22 +1598,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1608,7 +1608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,7 +1626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,19 +1662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,67 +1686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,13 +1716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,13 +1740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,6 +1786,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1799,36 +1799,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1850,18 +1820,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1885,8 +1844,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1899,6 +1858,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1907,145 +1907,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>

--- a/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
+++ b/02 系统测试/05 项目成果输出/缺陷报告2.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 项目成果输出\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E656BC-E49B-4B11-8ABF-376DD4FA4736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView xWindow="1224" yWindow="624" windowWidth="20292" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="woniuboss2.5" sheetId="4" r:id="rId1"/>
@@ -2097,14 +2103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2118,346 +2118,16 @@
       <name val="华文中宋"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2465,251 +2135,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2724,61 +2152,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3065,33 +2449,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="B121" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44166666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1"/>
-    <col min="8" max="8" width="11.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="175.5" spans="1:9">
+    <row r="2" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3149,7 +2533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="196" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="196.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3178,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="159" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3207,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="108" spans="1:9">
+    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="162" spans="1:9">
+    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3265,7 +2649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="121.5" spans="1:9">
+    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3294,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="121.5" spans="1:9">
+    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +2707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="67.5" spans="1:9">
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3352,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="135" spans="1:9">
+    <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:9">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +2794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="121.5" spans="1:9">
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3439,7 +2823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="67.5" spans="1:9">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3468,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="189" spans="1:9">
+    <row r="14" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -3497,7 +2881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="162" spans="1:9">
+    <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +2910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="229.5" spans="1:9">
+    <row r="16" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3553,7 +2937,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="409.5" spans="1:9">
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3582,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="409.5" spans="1:9">
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +2995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="409.5" spans="1:9">
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3640,7 +3024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="409.5" spans="1:9">
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3669,7 +3053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="1:9">
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3698,7 +3082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="409.5" spans="1:9">
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="409.5" spans="1:9">
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -3756,7 +3140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="229.5" spans="1:9">
+    <row r="24" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -3785,7 +3169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="243" spans="1:9">
+    <row r="25" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3814,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="108" spans="1:9">
+    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +3227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="351" spans="1:9">
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -3872,7 +3256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="148.5" spans="1:9">
+    <row r="28" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +3285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="202.5" spans="1:9">
+    <row r="29" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -3930,7 +3314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="310.5" spans="1:9">
+    <row r="30" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3959,7 +3343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="189" spans="1:9">
+    <row r="31" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -3988,7 +3372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="189" spans="1:9">
+    <row r="32" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4017,7 +3401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="378" spans="1:9">
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -4046,7 +3430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="351" spans="1:9">
+    <row r="34" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -4075,7 +3459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="351" spans="1:9">
+    <row r="35" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -4104,7 +3488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="364.5" spans="1:9">
+    <row r="36" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -4133,7 +3517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="391.5" spans="1:9">
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -4162,7 +3546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="378" spans="1:9">
+    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -4191,7 +3575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="391.5" spans="1:9">
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -4220,7 +3604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" ht="364.5" spans="1:9">
+    <row r="40" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -4249,7 +3633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="364.5" spans="1:9">
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -4278,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="189" spans="1:9">
+    <row r="42" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -4307,7 +3691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="162" spans="1:9">
+    <row r="43" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -4336,7 +3720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="202.5" spans="1:9">
+    <row r="44" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -4365,7 +3749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="229.5" spans="1:9">
+    <row r="45" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -4392,7 +3776,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" ht="351" spans="1:9">
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -4421,7 +3805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" ht="189" spans="1:9">
+    <row r="47" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +3834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" ht="409.5" spans="1:9">
+    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -4479,7 +3863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="351" spans="1:9">
+    <row r="49" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -4508,7 +3892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="364.5" spans="1:9">
+    <row r="50" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -4537,7 +3921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="256.5" spans="1:9">
+    <row r="51" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -4566,7 +3950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" ht="283.5" spans="1:9">
+    <row r="52" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -4595,7 +3979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" ht="283.5" spans="1:9">
+    <row r="53" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -4624,7 +4008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" ht="324" spans="1:9">
+    <row r="54" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -4653,7 +4037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" ht="324" spans="1:9">
+    <row r="55" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" ht="409.5" spans="1:9">
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -4711,7 +4095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="409.5" spans="1:9">
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -4740,7 +4124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" ht="409.5" spans="1:9">
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" ht="409.5" spans="1:9">
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -4798,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" ht="409.5" spans="1:9">
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" ht="310.5" spans="1:9">
+    <row r="61" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -4856,7 +4240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="310.5" spans="1:9">
+    <row r="62" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -4885,7 +4269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" ht="391.5" spans="1:9">
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -4914,7 +4298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" ht="391.5" spans="1:9">
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -4943,7 +4327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="391.5" spans="1:9">
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -4972,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="391.5" spans="1:9">
+    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -5001,7 +4385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" ht="391.5" spans="1:9">
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -5030,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" ht="391.5" spans="1:9">
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -5059,7 +4443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" ht="391.5" spans="1:9">
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -5088,7 +4472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="310.5" spans="1:9">
+    <row r="70" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -5117,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="270" spans="1:9">
+    <row r="71" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -5146,7 +4530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" ht="229.5" spans="1:9">
+    <row r="72" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -5175,7 +4559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" ht="270" spans="1:9">
+    <row r="73" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -5204,7 +4588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" ht="337.5" spans="1:9">
+    <row r="74" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -5233,7 +4617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" ht="283.5" spans="1:9">
+    <row r="75" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -5262,7 +4646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="243" spans="1:9">
+    <row r="76" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -5291,7 +4675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" ht="256.5" spans="1:9">
+    <row r="77" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -5320,7 +4704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" ht="283.5" spans="1:9">
+    <row r="78" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -5350,11 +4734,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I78">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>